--- a/hadoop2.6.0事件转换.xlsx
+++ b/hadoop2.6.0事件转换.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="yarn.ApplicationImpl" sheetId="1" r:id="rId1"/>
+    <sheet name="yarn.ApplicationImpl函数" sheetId="3" r:id="rId2"/>
+    <sheet name="yarn.ContainerImpl" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="122">
   <si>
     <t>application状态转换</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -67,17 +69,6 @@
   </si>
   <si>
     <t>INIT_CONTAINER</t>
-  </si>
-  <si>
-    <t>APPLICATION_CONTAINER_FINISHED
-APPLICATION_LOG_HANDLING_INITED
-APPLICATION_LOG_HANDLING_FAILED
-APPLICATION_INITED
-FINISH_APPLICATION</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>APPLICATION_CONTAINER_FINISHED</t>
   </si>
   <si>
     <t>APPLICATION_CONTAINER_FINISHED
@@ -149,11 +140,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">AppFinishTransition
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AppFinishTransition
 无
 无
@@ -170,6 +156,391 @@
 无
 无
 无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContainerEventType.INIT_CONTAINER</t>
+  </si>
+  <si>
+    <t>InitContainerTransition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>意义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppInitTransition</t>
+  </si>
+  <si>
+    <t>LogHandlerEventType.APPLICATION_STARTED</t>
+  </si>
+  <si>
+    <t>初始化一些应用需要的属性,比如权限,启动日志服务等初始化过程,然后调用日志系统,通知该应用已经开始运行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>真正去初始化一个容器,此时该容器所在的应用已经处于运行中了,即所需要的资源已经加载完毕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContainerDoneTransition</t>
+  </si>
+  <si>
+    <t>容器已经完成了,因此从该应用中移除该容器的映射</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谁调用了该函数--from</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用什么事件--to</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplicationEventType.INIT_CONTAINER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplicationEventType.INIT_APPLICATION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplicationEventType.APPLICATION_CONTAINER_FINISHED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplicationEventType.APPLICATION_LOG_HANDLING_INITED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplicationEventType.APPLICATION_LOG_HANDLING_FAILED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppLogInitDoneTransition</t>
+  </si>
+  <si>
+    <t>AppLogInitFailTransition</t>
+  </si>
+  <si>
+    <t>LocalizationEventType.INIT_APPLICATION_RESOURCES</t>
+  </si>
+  <si>
+    <t>应用完成初始化日志后调用初始化资源事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplicationEventType.APPLICATION_INITED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppInitDoneTransition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用初始化完成,调用所有的已知容器,使容器真正去初始化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINISH_APPLICATION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplicationEventType.FINISH_APPLICATION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到应用完成事件,该事件是resourceManager发过来的,即该应用确实已经完成了。
+如果没有容器了,则清理应用
+如意有容器,则需要对容器进行kill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果容器还存在,
+ContainerEventType.KILL_CONTAINER
+如果容器不存在,
+AuxServicesEventType.APPLICATION_STOP调用该函数通知第三方服务,应用已经完成
+LocalizationEventType.DESTROY_APPLICATION_RESOURCES应用已经完成,则清理该应用的资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FINISH_APPLICATION
+APPLICATION_CONTAINER_FINISHED
+APPLICATION_LOG_HANDLING_INITED
+APPLICATION_LOG_HANDLING_FAILED
+APPLICATION_INITED
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPLICATION_CONTAINER_FINISHED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AppFinishTransition
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppFinishTransition</t>
+  </si>
+  <si>
+    <t>一个容器完成之后,调用该方法,删除该容器的映射,
+如果没有容器了,则设置为APPLICATION_RESOURCES_CLEANINGUP
+如果还有容器,则设置为FINISHING_CONTAINERS_WAIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有容器了,则设置为APPLICATION_RESOURCES_CLEANINGUP,则
+AuxServicesEventType.APPLICATION_STOP调用该函数通知第三方服务,应用已经完成
+LocalizationEventType.DESTROY_APPLICATION_RESOURCES应用已经完成,则清理该应用的资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppCompletelyDoneTransition</t>
+  </si>
+  <si>
+    <t>ApplicationEventType.APPLICATION_CONTAINER_FINISHED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplicationEventType.APPLICATION_RESOURCES_CLEANEDUP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示又APPLICATION_RESOURCES_CLEANINGUP转换成FINISHED状态,表示该应用彻底被完成了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogHandlerEventType.APPLICATION_FINISHED,表示应用已经完成了,该处理日志了
+向token服务器发送该应用彻底完成了,移除该应用的token信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplicationEventType.APPLICATION_LOG_HANDLING_FINISHED</t>
+  </si>
+  <si>
+    <t>AppLogsAggregatedTransition</t>
+  </si>
+  <si>
+    <t>移除该app应用所有信息,该状态由FINISHED转换成FINISHED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>LOCALIZING</t>
+  </si>
+  <si>
+    <t>LOCALIZATION_FAILED</t>
+  </si>
+  <si>
+    <t>LOCALIZED</t>
+  </si>
+  <si>
+    <t>RUNNING</t>
+  </si>
+  <si>
+    <t>EXITED_WITH_SUCCESS</t>
+  </si>
+  <si>
+    <t>EXITED_WITH_FAILURE</t>
+  </si>
+  <si>
+    <t>KILLING</t>
+  </si>
+  <si>
+    <t>CONTAINER_CLEANEDUP_AFTER_KILL</t>
+  </si>
+  <si>
+    <t>CONTAINER_RESOURCES_CLEANINGUP</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>ContainerDiagnosticsUpdateTransition</t>
+  </si>
+  <si>
+    <t>RequestResourcesTransition</t>
+  </si>
+  <si>
+    <t>UPDATE_DIAGNOSTICS_MSG</t>
+  </si>
+  <si>
+    <t>INIT_CONTAINER
+KILL_CONTAINER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestResourcesTransition
+KillOnNewTransition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_LOCALIZED</t>
+  </si>
+  <si>
+    <t>LocalizedTransition</t>
+  </si>
+  <si>
+    <t>RESOURCE_FAILED</t>
+  </si>
+  <si>
+    <t>RESOURCE_LOCALIZED
+UPDATE_DIAGNOSTICS_MSG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizedTransition
+ContainerDiagnosticsUpdateTransition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KILL_CONTAINER</t>
+  </si>
+  <si>
+    <t>KillDuringLocalizationTransition</t>
+  </si>
+  <si>
+    <t>CONTAINER_RESOURCES_CLEANEDUP</t>
+  </si>
+  <si>
+    <t>ResourceFailedTransition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DIAGNOSTICS_MSG
+KILL_CONTAINER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DIAGNOSTICS_MSG
+KILL_CONTAINER
+RESOURCE_LOCALIZED
+RESOURCE_FAILED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContainerDiagnosticsUpdateTransition
+无(因为容器还没有开启,此时kill什么操作也不会调用)
+无
+无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTAINER_LAUNCHED</t>
+  </si>
+  <si>
+    <t>LaunchTransition</t>
+  </si>
+  <si>
+    <t>CONTAINER_EXITED_WITH_FAILURE</t>
+  </si>
+  <si>
+    <t>ExitedWithFailureTransition(true)</t>
+  </si>
+  <si>
+    <t>KillTransition</t>
+  </si>
+  <si>
+    <t>CONTAINER_EXITED_WITH_SUCCESS</t>
+  </si>
+  <si>
+    <t>ExitedWithSuccessTransition(true)</t>
+  </si>
+  <si>
+    <t>CONTAINER_EXITED_WITH_FAILURE
+CONTAINER_KILLED_ON_REQUEST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExitedWithFailureTransition(true)
+KilledExternallyTransition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContainerDiagnosticsUpdateTransition
+无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTAINER_KILLED_ON_REQUEST</t>
+  </si>
+  <si>
+    <t>ContainerKilledTransition</t>
+  </si>
+  <si>
+    <t>ExitedWithSuccessTransition(false)</t>
+  </si>
+  <si>
+    <t>ExitedWithFailureTransition(false)</t>
+  </si>
+  <si>
+    <t>RESOURCE_LOCALIZED
+RESOURCE_FAILED
+UPDATE_DIAGNOSTICS_MSG
+KILL_CONTAINER
+CONTAINER_LAUNCHED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizedResourceDuringKillTransition
+无
+ContainerDiagnosticsUpdateTransition
+无
+无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DIAGNOSTICS_MSG
+KILL_CONTAINER
+CONTAINER_EXITED_WITH_SUCCESS
+CONTAINER_EXITED_WITH_FAILURE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContainerDiagnosticsUpdateTransition
+无
+无
+无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KILL_CONTAINER
+INIT_CONTAINER
+UPDATE_DIAGNOSTICS_MSG
+RESOURCE_FAILED
+CONTAINER_EXITED_WITH_SUCCESS
+CONTAINER_EXITED_WITH_FAILURE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无
+无
+ContainerDiagnosticsUpdateTransition
+无
+无
+无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTAINER_RESOURCES_CLEANINGUP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -542,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -744,7 +1115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -781,7 +1152,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -813,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -827,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -853,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -879,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -906,15 +1277,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -937,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
         <v>21</v>
       </c>
-      <c r="E25" t="s">
-        <v>23</v>
-      </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -963,13 +1334,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -989,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1015,10 +1386,10 @@
         <v>0</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -1041,11 +1412,597 @@
         <v>0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="40.75" customWidth="1"/>
+    <col min="2" max="2" width="58.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.25" customWidth="1"/>
+    <col min="3" max="5" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.125" customWidth="1"/>
+    <col min="10" max="10" width="38.75" customWidth="1"/>
+    <col min="11" max="11" width="32.125" customWidth="1"/>
+    <col min="12" max="12" width="32.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="108" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J25" t="s">
+        <v>112</v>
+      </c>
+      <c r="L25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/hadoop2.6.0事件转换.xlsx
+++ b/hadoop2.6.0事件转换.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="yarn.ApplicationImpl" sheetId="1" r:id="rId1"/>
-    <sheet name="yarn.ApplicationImpl函数" sheetId="3" r:id="rId2"/>
-    <sheet name="yarn.ContainerImpl" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="yarn.ApplicationImpl" sheetId="1" r:id="rId2"/>
+    <sheet name="yarn.ApplicationImpl函数" sheetId="3" r:id="rId3"/>
+    <sheet name="yarn.ContainerImpl" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="142">
   <si>
     <t>application状态转换</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -541,6 +542,88 @@
   </si>
   <si>
     <t>CONTAINER_RESOURCES_CLEANINGUP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$localDir/filecache</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$localDir/nmPrivate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$logDir</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志目录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalResourcesTracker</t>
+  </si>
+  <si>
+    <t>根据可见性,每个可见性拥有一个该对象
+1.public的单独拥有一个该对象
+2.PRIVATE的每一个user对应一个该对象
+3.APPLICATION的每一个应用对应一个该对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$localDir/usercache/$user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个用户对应一个该文件夹,存储本地下载的资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>appcache</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个用户对应一个该文件夹,存储本地下载的资源,表示该用户的资源按照应用分组存放</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$localDir/usercache/$user/appcache/$appid/$containId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个用户--每一个应用--每一个容器所需要的文件进行分组存放</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$localDir/nmPrivate/$appid/$container</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示该NodeManager节点上的私有空间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示在私有空间上,资源按照应用分组存放</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示在私有空间上,资源按照应用--容器分组存放</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$localDir/usercache/$user/appcache/$appid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$localDir/nmPrivate/$appid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>token日志目录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$localDir/nmPrivate/$localizerId.tokens</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -911,6 +994,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="49.5" customWidth="1"/>
+    <col min="2" max="2" width="81.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1421,7 +1607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1598,15 +1784,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1798,7 +1984,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="108" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>83</v>
       </c>
@@ -1842,7 +2028,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>

--- a/hadoop2.6.0事件转换.xlsx
+++ b/hadoop2.6.0事件转换.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
     <sheet name="yarn.ApplicationImpl" sheetId="1" r:id="rId2"/>
     <sheet name="yarn.ApplicationImpl函数" sheetId="3" r:id="rId3"/>
     <sheet name="yarn.ContainerImpl" sheetId="4" r:id="rId4"/>
+    <sheet name="yarn.resourceManager.RMNodeImpl" sheetId="6" r:id="rId5"/>
+    <sheet name="yarn.resourceManager.RMAppImpl" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="268">
   <si>
     <t>application状态转换</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -397,19 +399,11 @@
     <t>RESOURCE_LOCALIZED</t>
   </si>
   <si>
-    <t>LocalizedTransition</t>
-  </si>
-  <si>
     <t>RESOURCE_FAILED</t>
   </si>
   <si>
     <t>RESOURCE_LOCALIZED
 UPDATE_DIAGNOSTICS_MSG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalizedTransition
-ContainerDiagnosticsUpdateTransition</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -446,9 +440,6 @@
   </si>
   <si>
     <t>CONTAINER_LAUNCHED</t>
-  </si>
-  <si>
-    <t>LaunchTransition</t>
   </si>
   <si>
     <t>CONTAINER_EXITED_WITH_FAILURE</t>
@@ -591,14 +582,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>每一个用户--每一个应用--每一个容器所需要的文件进行分组存放</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$localDir/nmPrivate/$appid/$container</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>表示该NodeManager节点上的私有空间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -619,11 +602,599 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>token日志目录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$localDir/nmPrivate/$localizerId.tokens</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>token日志文件,每一个localizerId对应一个文件,该文件是根据appId或者userId进行设置的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$localDir/usercache/$user/appcache/$appId/filecache</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$localDir/usercache/$user/filecache</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对每一个用户提供一个公共的缓存空间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对每一个用户--一个appid提供一个公共的缓存空间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$logDir/$appid/$containerId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储每一个应用--容器对应的日志</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$localDir/nmPrivate/$appid/$containerId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个容器的脚本文件路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个容器的token文件存储路径</t>
+  </si>
+  <si>
+    <t>$localDir/nmPrivate/$appId/$containerId/$containerId.pid</t>
+  </si>
+  <si>
+    <t>容器的PID进程号所在文件路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个用户--每一个应用--每一个容器所需要的文件进行分组存放,表示容器的工作目录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$localDir/nmPrivate/$appId/$containerId/launch_container.sh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$localDir/nmPrivate/$appId/$containerId/containerIdStr.tokens</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$localDir/usercache/$user/appcache/$appid/$containId/container_tokens</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储该容器的token信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$localDir/nmPrivate/$appId/$containerId/$containerId.pid.exitcode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示容器退出状态文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizedTransition
+ContainerDiagnosticsUpdateTransition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestResourcesTransition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizedTransition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaunchTransition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STARTED</t>
+  </si>
+  <si>
+    <t>DECOMMISSION</t>
+  </si>
+  <si>
+    <t>RESOURCE_UPDATE</t>
+  </si>
+  <si>
+    <t>STATUS_UPDATE</t>
+  </si>
+  <si>
+    <t>REBOOTING</t>
+  </si>
+  <si>
+    <t>EXPIRE</t>
+  </si>
+  <si>
+    <t>UNHEALTHY</t>
+  </si>
+  <si>
+    <t>DECOMMISSIONED</t>
+  </si>
+  <si>
+    <t>LOST</t>
+  </si>
+  <si>
+    <t>REBOOTED</t>
+  </si>
+  <si>
+    <t>AddNodeTransition</t>
+  </si>
+  <si>
+    <t>UpdateNodeResourceWhenUnusableTransition</t>
+  </si>
+  <si>
+    <t>StatusUpdateWhenHealthyTransition</t>
+  </si>
+  <si>
+    <t>DeactivateNodeTransition(NodeState.DECOMMISSIONED)</t>
+  </si>
+  <si>
+    <t>DeactivateNodeTransition(NodeState.LOST)</t>
+  </si>
+  <si>
+    <t>DeactivateNodeTransition(NodeState.REBOOTED)</t>
+  </si>
+  <si>
+    <t>STATUS_UPDATE
+CLEANUP_APP
+CLEANUP_CONTAINER
+FINISHED_CONTAINERS_PULLED_BY_AM
+RECONNECTED
+RESOURCE_UPDATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_UPDATE
+FINISHED_CONTAINERS_PULLED_BY_AM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateNodeResourceWhenUnusableTransition
+AddContainersToBeRemovedFromNMTransition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateNodeResourceWhenUnusableTransition
+AddContainersToBeRemovedFromNMTransition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatusUpdateWhenUnHealthyTransition</t>
+  </si>
+  <si>
+    <t>STATUS_UPDATE
+RECONNECTED
+CLEANUP_APP
+CLEANUP_CONTAINER
+RESOURCE_UPDATE
+FINISHED_CONTAINERS_PULLED_BY_AM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatusUpdateWhenUnHealthyTransition
+ReconnectNodeTransition
+CleanUpAppTransition
+CleanUpContainerTransition
+UpdateNodeResourceWhenUnusableTransition
+AddContainersToBeRemovedFromNMTransition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatusUpdateWhenHealthyTransition
+CleanUpAppTransition
+CleanUpContainerTransition
+AddContainersToBeRemovedFromNMTransition
+ReconnectNodeTransition
+UpdateNodeResourceWhenRunningTransition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateNodeResourceWhenUnusableTransition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMNodeEventType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NodeState</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SchedulerEventType.NODE_RESOURCE_UPDATE</t>
+  </si>
+  <si>
+    <t>目的是通知调度器,集群节点有问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发事件的目的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当更新节点资源信息的时候</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本类中调用外部资源事件时间点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECOMMISSIONED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNHEALTHY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前节点已经是UNHEALTHY状态,
+转换到健康状态,则触发一些事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SchedulerEventType.NODE_ADDED
+NodesListManagerEventType.NODE_USABLE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的是通知调度器,集群中增加了一个节点
+目的是通知节点已经可以使用了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SchedulerEventType.NODE_REMOVED
+NodesListManagerEventType.NODE_UNUSABLE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的是通知调度器,减少一个节点
+目的是通知该节点已经不能使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当监控转换到非监控的时候,触发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SchedulerEventType.NODE_UPDATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当状态变更的时候,发现远程节点有新增加
+的容器或者刚刚完成的容器时,触发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知调度器,有节点的容器有变更</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当节点注册到资源管理器后,触发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SchedulerEventType.NODE_ADDED
+NodesListManagerEventType.NODE_USABLE
+RMAppEventType.APP_RUNNING_ON_NODE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知调度器,有节点加入了
+目的是通知节点已经可以使用了
+通知该应用已经在该远程节点上运行了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMAppEventType</t>
+  </si>
+  <si>
+    <t>RMAppState</t>
+  </si>
+  <si>
+    <t>NEW_SAVING</t>
+  </si>
+  <si>
+    <t>SUBMITTED</t>
+  </si>
+  <si>
+    <t>ACCEPTED</t>
+  </si>
+  <si>
+    <t>FINAL_SAVING</t>
+  </si>
+  <si>
+    <t>FINISHING</t>
+  </si>
+  <si>
+    <t>FINISHED</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>KILLED</t>
+  </si>
+  <si>
+    <t>NODE_UPDATE</t>
+  </si>
+  <si>
+    <t>RMAppNodeUpdateTransition</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>RMAppNewlySavingTransition</t>
+  </si>
+  <si>
+    <t>RECOVER</t>
+  </si>
+  <si>
+    <t>RMAppRecoveredTransition</t>
+  </si>
+  <si>
+    <t>RMAppRecoveredTransition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECOVER
+KILL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMAppRecoveredTransition
+AppKilledTransition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECOVER
+APP_REJECTED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RMAppRecoveredTransition
+FinalSavingTransition(new AppRejectedTransition(),RMAppState.FAILED)
+          </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP_NEW_SAVED</t>
+  </si>
+  <si>
+    <t>AddApplicationToSchedulerTransition</t>
+  </si>
+  <si>
+    <t>KILL</t>
+  </si>
+  <si>
+    <t>KILL
+APP_REJECTED
+MOVE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinalSavingTransition(new AppKilledTransition(), RMAppState.KILLED)
+FinalSavingTransition(new AppRejectedTransition(),RMAppState.FAILED)
+RMAppMoveTransition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMAppNodeUpdateTransition
+RMAppMoveTransition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NODE_UPDATE
+MOVE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP_ACCEPTED</t>
+  </si>
+  <si>
+    <t>StartAppAttemptTransition</t>
+  </si>
+  <si>
+    <t>APP_REJECTED
+KILL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinalSavingTransition(new AppRejectedTransition(), RMAppState.FAILED)
+FinalSavingTransition(new AppKilledTransition(), RMAppState.KILLED)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTEMPT_REGISTERED</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTEMPT_FAILED</t>
+  </si>
+  <si>
+    <t>AttemptFailedTransition(RMAppState.ACCEPTED)</t>
+  </si>
+  <si>
+    <t>ATTEMPT_FAILED
+ATTEMPT_FINISHED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttemptFailedTransition(RMAppState.ACCEPTED)
+FinalSavingTransition(FINISHED_TRANSITION, RMAppState.FINISHED)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KillAttemptTransition</t>
+  </si>
+  <si>
+    <t>NODE_UPDATE
+MOVE
+ATTEMPT_FAILED
+APP_RUNNING_ON_NODE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMAppNodeUpdateTransition
+RMAppMoveTransition
+AttemptFailedTransition(RMAppState.ACCEPTED)
+AppRunningOnNodeTransition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTEMPT_FINISHED</t>
+  </si>
+  <si>
+    <t>AppFinishedTransition</t>
+  </si>
+  <si>
+    <t>NODE_UPDATE
+MOVE
+APP_RUNNING_ON_NODE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMAppNodeUpdateTransition
+RMAppMoveTransition
+AppRunningOnNodeTransition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTEMPT_UNREGISTERED
+ATTEMPT_FAILED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinalSavingTransition(new AttemptUnregisteredTransition(),RMAppState.FINISHING,RMAppState.FINISHED)
+AttemptFailedTransition(RMAppState.ACCEPTED)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP_UPDATE_SAVED</t>
+  </si>
+  <si>
+    <t>FinalStateSavedTransition</t>
+  </si>
+  <si>
+    <t>ATTEMPT_FINISHED
+APP_RUNNING_ON_NODE
+NODE_UPDATE
+KILL
+APP_NEW_SAVED
+MOVE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttemptFinishedAtFinalSavingTransition
+AppRunningOnNodeTransition
+无
+无
+无
+无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP_RUNNING_ON_NODE
+NODE_UPDATE
+KILL
+MOVE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppRunningOnNodeTransition
+无
+无
+无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP_RUNNING_ON_NODE
+NODE_UPDATE
+ATTEMPT_UNREGISTERED
+ATTEMPT_FINISHED
+KILL
+MOVE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP_RUNNING_ON_NODE
+KILL
+NODE_UPDATE
+MOVE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppRunningOnNodeTransition
+无
+无
+无
+无
+无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTEMPT_KILLED
+ATTEMPT_UNREGISTERED
+ATTEMPT_FAILED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinalSavingTransition(new AppKilledTransition(), RMAppState.KILLED)
+FinalSavingTransition(new AttemptUnregisteredTransition(),RMAppState.FINISHING, RMAppState.FINISHED)
+AttemptFailedTransition(RMAppState.KILLING)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP_RUNNING_ON_NODE
+NODE_UPDATE
+ATTEMPT_REGISTERED
+APP_UPDATE_SAVED
+KILL
+MOVE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP_RUNNING_ON_NODE
+APP_ACCEPTED
+APP_REJECTED
+KILL
+ATTEMPT_FINISHED
+ATTEMPT_FAILED
+NODE_UPDATE
+MOVE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppRunningOnNodeTransition
+无
+无
+无
+无
+无
+无
+无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -994,24 +1565,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="49.5" customWidth="1"/>
+    <col min="1" max="1" width="85.375" customWidth="1"/>
     <col min="2" max="2" width="81.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -1019,73 +1590,137 @@
         <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1786,13 +2421,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1838,7 +2473,7 @@
         <v>81</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>83</v>
@@ -1869,16 +2504,16 @@
         <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
         <v>89</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="54" x14ac:dyDescent="0.15">
@@ -1886,10 +2521,10 @@
         <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -1900,13 +2535,13 @@
         <v>86</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -1917,13 +2552,13 @@
         <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -1931,10 +2566,10 @@
         <v>78</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -1942,10 +2577,10 @@
         <v>79</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
@@ -1953,19 +2588,19 @@
         <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="54" x14ac:dyDescent="0.15">
@@ -1973,10 +2608,10 @@
         <v>81</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -1989,7 +2624,7 @@
         <v>83</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
@@ -2039,7 +2674,7 @@
         <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="E18" t="s">
         <v>85</v>
@@ -2053,16 +2688,16 @@
         <v>74</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" t="s">
+        <v>157</v>
+      </c>
+      <c r="I19" t="s">
         <v>93</v>
-      </c>
-      <c r="D19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="81" x14ac:dyDescent="0.15">
@@ -2070,7 +2705,7 @@
         <v>75</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L20" t="s">
         <v>37</v>
@@ -2084,13 +2719,13 @@
         <v>84</v>
       </c>
       <c r="F21" t="s">
+        <v>158</v>
+      </c>
+      <c r="H21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" t="s">
         <v>102</v>
-      </c>
-      <c r="H21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I21" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2101,13 +2736,13 @@
         <v>84</v>
       </c>
       <c r="G22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2115,7 +2750,7 @@
         <v>78</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L23" t="s">
         <v>37</v>
@@ -2126,7 +2761,7 @@
         <v>79</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L24" t="s">
         <v>37</v>
@@ -2137,16 +2772,16 @@
         <v>80</v>
       </c>
       <c r="G25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H25" t="s">
-        <v>114</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="J25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L25" t="s">
         <v>37</v>
@@ -2157,7 +2792,7 @@
         <v>81</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L26" t="s">
         <v>37</v>
@@ -2173,17 +2808,747 @@
         <v>83</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>84</v>
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.375" customWidth="1"/>
+    <col min="4" max="4" width="43.375" customWidth="1"/>
+    <col min="5" max="5" width="56" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E16" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>200</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.125" customWidth="1"/>
+    <col min="6" max="6" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.125" customWidth="1"/>
+    <col min="8" max="8" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J2" t="s">
+        <v>221</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I6" t="s">
+        <v>248</v>
+      </c>
+      <c r="K6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H7" t="s">
+        <v>254</v>
+      </c>
+      <c r="I7" t="s">
+        <v>254</v>
+      </c>
+      <c r="J7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I11" t="s">
+        <v>248</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="108" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" t="s">
+        <v>223</v>
+      </c>
+      <c r="E18" t="s">
+        <v>222</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I18" t="s">
+        <v>222</v>
+      </c>
+      <c r="J18" t="s">
+        <v>222</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D19" t="s">
+        <v>229</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" t="s">
+        <v>236</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F21" t="s">
+        <v>240</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" t="s">
+        <v>242</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I22" t="s">
+        <v>249</v>
+      </c>
+      <c r="K22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H23" t="s">
+        <v>255</v>
+      </c>
+      <c r="I23" t="s">
+        <v>255</v>
+      </c>
+      <c r="J23" t="s">
+        <v>255</v>
+      </c>
+      <c r="L23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I27" t="s">
+        <v>249</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="108" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/hadoop2.6.0事件转换.xlsx
+++ b/hadoop2.6.0事件转换.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="269">
   <si>
     <t>application状态转换</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1195,6 +1195,10 @@
 无
 无
 无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fair-scheduler-myself.xml我自己写的总结,配置信息是最全的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1565,10 +1569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1721,6 +1725,11 @@
       </c>
       <c r="B37" s="2" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3121,7 +3130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
